--- a/test/actions.xlsx
+++ b/test/actions.xlsx
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -535,6 +535,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="141" spans="2:2">
+      <c r="B141">
+        <v>123123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
